--- a/biology/Botanique/Scoliotropidaceae/Scoliotropidaceae.xlsx
+++ b/biology/Botanique/Scoliotropidaceae/Scoliotropidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Scoliotropidaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Bacillariophyceae et de l’ordre des Naviculales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Scoliotropis, dérivé du grec σκολιός / skoliós, « courbé, oblique, tortueux », et du suffixe grec -trope (de  τροπος / tropos, « manière, façon, tournée vers »), en référence à la forme de la diatomée dont « (les) valves allongées symétriques (sont séparées par une) ligne médiane légèrement sigmoïde (en forme de "S"), surtout vers les extrémités »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Scoliotropis, dérivé du grec σκολιός / skoliós, « courbé, oblique, tortueux », et du suffixe grec -trope (de  τροπος / tropos, « manière, façon, tournée vers »), en référence à la forme de la diatomée dont « (les) valves allongées symétriques (sont séparées par une) ligne médiane légèrement sigmoïde (en forme de "S"), surtout vers les extrémités ».
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,9 +612,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (23 mai 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (23 mai 2022) :
 Alloioneis K.M.Schumann, 1878
 Biremis D.G.Mann &amp; E.J.Cox, 1990
 Diadema K.-D.Kemp &amp; Paddock, 1989
@@ -630,9 +650,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Scoliotropidaceae Mereschkowsky, 1903[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Scoliotropidaceae Mereschkowsky, 1903.
 </t>
         </is>
       </c>
